--- a/力扣/图解算法数据结构/Offer_66_Leetcode_238.xlsx
+++ b/力扣/图解算法数据结构/Offer_66_Leetcode_238.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168E54A9-656A-4824-B4AD-061E300AFAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B486CD-CDA9-4D28-8425-ED3D3432DE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="117">
   <si>
     <t>剑指 Offer 66. 构建乘积数组</t>
   </si>
@@ -385,27 +385,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=output[3]*right[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=output[i]*right[i]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>=1*4*3*2*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=output[2]*right[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=output[1]*right[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=output[0]*right[0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -518,6 +498,34 @@
   </si>
   <si>
     <t>右边元素动态变化，从下往上设置，计算N*2次，循环N次，先得到输出数组的值，再计算右边元素的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=output[i]*right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=output[0]*right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=output[1]*right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=output[2]*right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=output[3]*right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考：https://www.bilibili.com/video/BV18D4y1D7JP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,9 +667,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -673,6 +678,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M97"/>
+  <dimension ref="A2:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:J40"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1036,145 +1044,145 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="B6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="B8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C16" s="2" t="s">
@@ -1397,78 +1405,78 @@
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -1627,18 +1635,18 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
@@ -1798,36 +1806,36 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A71" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
+      <c r="A71" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B73" s="2" t="s">
@@ -1981,18 +1989,18 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A81" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
+      <c r="A81" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
@@ -2027,6 +2035,9 @@
       <c r="H84" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="I84" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="J84" s="1" t="s">
         <v>53</v>
       </c>
@@ -2052,14 +2063,16 @@
         <v>73</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I85" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="J85" s="8" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>91</v>
@@ -2082,17 +2095,19 @@
         <v>4</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G86" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G86" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="H86" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I86" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="J86" s="8" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>89</v>
@@ -2115,17 +2130,19 @@
         <v>4</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I87" s="8"/>
+        <v>113</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="J87" s="8" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>87</v>
@@ -2151,19 +2168,21 @@
         <v>85</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I88" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="J88" s="8" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L88" s="14">
+      <c r="L88" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2219,26 +2238,26 @@
         <v>4</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L93" s="14">
+      <c r="L93" s="13">
         <v>8</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.15">
@@ -2255,17 +2274,17 @@
         <v>4</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G94" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G94" s="12" t="s">
         <v>67</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>90</v>
@@ -2288,17 +2307,17 @@
         <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G95" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G95" s="12" t="s">
         <v>66</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>88</v>
@@ -2321,17 +2340,17 @@
         <v>3</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G96" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>14</v>
@@ -2340,11 +2359,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F97" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G97" s="13" t="s">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F97" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G97" s="12" t="s">
         <v>42</v>
       </c>
       <c r="H97" s="1" t="s">
@@ -2354,8 +2373,19 @@
         <v>93</v>
       </c>
     </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B69:J69"/>
     <mergeCell ref="A71:J71"/>
     <mergeCell ref="A81:J81"/>
@@ -2372,12 +2402,6 @@
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
